--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,8 +1740,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1757,63 +1757,47 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2103,29 +2095,21 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2159,12 +2143,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2173,12 +2157,12 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2188,64 +2172,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2253,23 +2229,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2303,21 +2287,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2319,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2353,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2388,72 +2380,64 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2471,21 +2455,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2529,19 +2521,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2585,19 +2577,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2641,19 +2633,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2697,19 +2689,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2719,77 +2711,61 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -2797,28 +2773,36 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>exemption-type</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2847,12 +2831,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>exemption-type</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -2861,12 +2845,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2885,22 +2869,22 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -2909,12 +2893,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2943,12 +2927,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -2957,12 +2941,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2991,12 +2975,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3005,17 +2989,17 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3023,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3053,12 +3037,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3087,31 +3071,39 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>loss-date</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3145,24 +3137,24 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>loss-date</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -3201,29 +3193,29 @@
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>supporting-evidence</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3247,39 +3239,31 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>supporting-evidence</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3287,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3317,12 +3301,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3351,12 +3335,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3365,17 +3349,17 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3399,21 +3383,29 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3423,7 +3415,7 @@
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3457,19 +3449,19 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3484,48 +3476,40 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3542,27 +3526,27 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3573,12 +3557,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3588,16 +3572,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3605,12 +3581,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3621,17 +3597,17 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3645,12 +3621,12 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3661,7 +3637,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3676,21 +3652,29 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3701,7 +3685,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3711,21 +3695,13 @@
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3733,12 +3709,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3749,12 +3725,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3773,12 +3749,12 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3789,12 +3765,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3804,37 +3780,53 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3844,16 +3836,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -3871,12 +3855,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3885,7 +3869,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3919,12 +3903,12 @@
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -3933,7 +3917,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3957,22 +3941,22 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr"/>
@@ -3981,7 +3965,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -4015,12 +3999,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
@@ -4029,7 +4013,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -4063,12 +4047,12 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr"/>
@@ -4077,7 +4061,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4101,95 +4085,95 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -4207,12 +4191,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4221,17 +4205,17 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4239,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4269,7 +4253,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4279,7 +4263,7 @@
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4293,36 +4277,28 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4341,12 +4317,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4357,17 +4333,17 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4357,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4397,12 +4373,12 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4421,12 +4397,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4437,17 +4413,17 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4437,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4477,7 +4453,7 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4501,12 +4477,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4517,7 +4493,7 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4541,12 +4517,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4557,36 +4533,44 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4597,31 +4581,23 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4629,12 +4605,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4645,17 +4621,17 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4669,12 +4645,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4685,12 +4661,12 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
@@ -4709,12 +4685,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4725,17 +4701,17 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4749,12 +4725,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4765,7 +4741,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4789,12 +4765,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4805,12 +4781,12 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4820,32 +4796,48 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr"/>
-      <c r="G87" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4860,16 +4852,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -4887,12 +4871,12 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr"/>
@@ -4901,17 +4885,17 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4935,31 +4919,39 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J89" s="2" t="inlineStr"/>
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4993,29 +4985,29 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J90" s="2" t="inlineStr"/>
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5049,29 +5041,37 @@
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J91" s="2" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K91" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5115,17 +5115,17 @@
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K92" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -5159,109 +5159,85 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K93" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr"/>
+      <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>non-residential-change-outline</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>hours-not-known</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
           <t>Details of changes to non-residential floorspace in the proposed development.</t>
@@ -5269,23 +5245,31 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>non-residential-change-outline</t>
+          <t>floorspace-details-outline</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5319,12 +5303,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5333,17 +5317,17 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5351,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5381,12 +5365,12 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5415,12 +5399,12 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>existing-gross-floorspace</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -5429,17 +5413,17 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5463,12 +5447,12 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>existing-gross-floorspace</t>
+          <t>is-floorspace-lost-known</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Is floorspace lost known</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr"/>
@@ -5477,17 +5461,17 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Whether the amount of floorspace to be lost is known</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5511,12 +5495,12 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>is-floorspace-lost-known</t>
+          <t>floorspace-lost</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Is floorspace lost known</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -5525,12 +5509,12 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Whether the amount of floorspace to be lost is known</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5559,12 +5543,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>floorspace-lost</t>
+          <t>is-total-gross-proposed-known</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Is total gross proposed known</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5573,12 +5557,12 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Whether the total gross proposed floorspace is known</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
@@ -5607,12 +5591,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>is-total-gross-proposed-known</t>
+          <t>total-gross-proposed</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Is total gross proposed known</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5621,12 +5605,12 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Whether the total gross proposed floorspace is known</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5655,12 +5639,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>total-gross-proposed</t>
+          <t>net-additional-floorspace</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5669,7 +5653,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5679,7 +5663,7 @@
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5693,22 +5677,22 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details-outline</t>
+          <t>room-details-outline</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>net-additional-floorspace</t>
+          <t>use-class-accommodation</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5717,12 +5701,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5751,12 +5735,12 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>use-class-accommodation</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5765,17 +5749,17 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5783,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5813,12 +5797,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5847,12 +5831,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>is-existing-rooms-lost-known</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Is existing rooms lost known</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5861,7 +5845,7 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Whether the total existing rooms that will be lost is known</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5895,12 +5879,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>is-existing-rooms-lost-known</t>
+          <t>existing-rooms-lost</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Is existing rooms lost known</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5909,12 +5893,12 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Whether the total existing rooms that will be lost is known</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5943,12 +5927,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>existing-rooms-lost</t>
+          <t>is-total-rooms-proposed-known</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Is total rooms proposed known</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5957,12 +5941,12 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Whether the total rooms proposed is known</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
@@ -5991,12 +5975,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>is-total-rooms-proposed-known</t>
+          <t>total-rooms-proposed</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Is total rooms proposed known</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -6005,12 +5989,12 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Whether the total rooms proposed is known</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
@@ -6039,12 +6023,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>total-rooms-proposed</t>
+          <t>net-additional-rooms</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -6053,7 +6037,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -6063,50 +6047,50 @@
       </c>
       <c r="N111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>room-details-outline</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>net-additional-rooms</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
       <c r="H112" s="2" t="inlineStr"/>
       <c r="I112" s="2" t="inlineStr"/>
       <c r="J112" s="2" t="inlineStr"/>
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
@@ -6116,16 +6100,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -6133,12 +6109,12 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr"/>
@@ -6149,7 +6125,7 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -6173,33 +6149,49 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
-      <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6233,19 +6225,19 @@
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6255,7 +6247,7 @@
       </c>
       <c r="N115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6289,19 +6281,19 @@
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6345,19 +6337,19 @@
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6401,19 +6393,19 @@
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6423,7 +6415,7 @@
       </c>
       <c r="N118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6447,34 +6439,26 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
@@ -6493,36 +6477,28 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
       <c r="H120" s="2" t="inlineStr"/>
       <c r="I120" s="2" t="inlineStr"/>
       <c r="J120" s="2" t="inlineStr"/>
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N120" s="2" t="inlineStr">
@@ -6541,23 +6517,31 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr"/>
-      <c r="G121" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr"/>
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6567,7 +6551,7 @@
       </c>
       <c r="N121" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6591,12 +6575,12 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr"/>
@@ -6605,12 +6589,12 @@
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6629,41 +6613,33 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="inlineStr"/>
       <c r="H123" s="2" t="inlineStr"/>
       <c r="I123" s="2" t="inlineStr"/>
       <c r="J123" s="2" t="inlineStr"/>
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6677,12 +6653,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6693,12 +6669,12 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
@@ -6717,12 +6693,12 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
@@ -6733,7 +6709,7 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
@@ -6757,12 +6733,12 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
@@ -6773,12 +6749,12 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N126" s="2" t="inlineStr">
@@ -6788,21 +6764,29 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n"/>
-      <c r="B127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr"/>
@@ -6813,31 +6797,23 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N127" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
+      <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -6845,12 +6821,12 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr"/>
@@ -6861,17 +6837,17 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6885,12 +6861,12 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
@@ -6901,7 +6877,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6925,12 +6901,12 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr"/>
@@ -6941,7 +6917,7 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6965,12 +6941,12 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
@@ -6981,7 +6957,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6996,21 +6972,29 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n"/>
-      <c r="B132" s="2" t="n"/>
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr"/>
@@ -7021,7 +7005,7 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -7031,21 +7015,13 @@
       </c>
       <c r="N132" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A133" s="2" t="n"/>
+      <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -7053,12 +7029,12 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr"/>
@@ -7069,12 +7045,12 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
@@ -7093,28 +7069,36 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H134" s="2" t="inlineStr"/>
       <c r="I134" s="2" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr"/>
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -7143,12 +7127,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -7157,17 +7141,17 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7191,12 +7175,12 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7205,12 +7189,12 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
@@ -7239,12 +7223,12 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7253,7 +7237,7 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7277,22 +7261,22 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7301,7 +7285,7 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7335,12 +7319,12 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7349,7 +7333,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7383,12 +7367,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7397,7 +7381,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7431,12 +7415,12 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr"/>
@@ -7445,7 +7429,7 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
@@ -7460,64 +7444,56 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -7525,12 +7501,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>reserved-matters</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7541,12 +7517,12 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
@@ -7565,12 +7541,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>reserved-matters</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7581,12 +7557,12 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
@@ -7605,12 +7581,12 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7621,17 +7597,17 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7645,12 +7621,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7661,17 +7637,17 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7685,12 +7661,12 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7701,36 +7677,44 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7741,31 +7725,23 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -7773,28 +7749,36 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
@@ -7823,12 +7807,12 @@
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr"/>
@@ -7837,7 +7821,7 @@
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
@@ -7871,26 +7855,34 @@
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J151" s="2" t="inlineStr"/>
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
@@ -7929,19 +7921,27 @@
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
@@ -7995,27 +7995,27 @@
       </c>
       <c r="J153" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K153" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8059,17 +8059,17 @@
       </c>
       <c r="J154" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K154" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="N154" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8113,27 +8113,19 @@
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="inlineStr"/>
+      <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
@@ -8143,7 +8135,7 @@
       </c>
       <c r="N155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8167,39 +8159,39 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8233,19 +8225,27 @@
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J157" s="2" t="inlineStr"/>
-      <c r="K157" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8299,27 +8299,27 @@
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K158" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8363,17 +8363,17 @@
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K159" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8417,27 +8417,19 @@
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="inlineStr"/>
+      <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
@@ -8447,7 +8439,7 @@
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8461,39 +8453,23 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr"/>
+      <c r="H161" s="2" t="inlineStr"/>
+      <c r="I161" s="2" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8503,7 +8479,7 @@
       </c>
       <c r="N161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8517,12 +8493,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8533,7 +8509,7 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
@@ -8557,12 +8533,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8573,7 +8549,7 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
@@ -8588,21 +8564,29 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n"/>
-      <c r="B164" s="2" t="n"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8613,7 +8597,7 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
@@ -8628,16 +8612,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -8645,12 +8621,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8661,52 +8637,68 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr"/>
-      <c r="G166" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H166" s="2" t="inlineStr"/>
       <c r="I166" s="2" t="inlineStr"/>
       <c r="J166" s="2" t="inlineStr"/>
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
@@ -8716,16 +8708,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A167" s="2" t="n"/>
+      <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -8743,12 +8727,12 @@
       </c>
       <c r="F167" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr"/>
@@ -8757,12 +8741,12 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
@@ -8791,12 +8775,12 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr"/>
@@ -8805,7 +8789,7 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
@@ -8839,12 +8823,12 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr"/>
@@ -8853,12 +8837,12 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
@@ -8887,12 +8871,12 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr"/>
@@ -8901,7 +8885,7 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
@@ -8935,12 +8919,12 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr"/>
@@ -8949,7 +8933,7 @@
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
@@ -8983,12 +8967,12 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -8997,7 +8981,7 @@
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
@@ -9031,12 +9015,12 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -9045,12 +9029,12 @@
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N173" s="2" t="inlineStr">
@@ -9079,12 +9063,12 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -9093,7 +9077,7 @@
       <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
@@ -9108,64 +9092,56 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n"/>
-      <c r="B175" s="2" t="n"/>
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr"/>
       <c r="H175" s="2" t="inlineStr"/>
       <c r="I175" s="2" t="inlineStr"/>
       <c r="J175" s="2" t="inlineStr"/>
       <c r="K175" s="2" t="inlineStr"/>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A176" s="2" t="n"/>
+      <c r="B176" s="2" t="n"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -9173,12 +9149,12 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr"/>
@@ -9189,12 +9165,12 @@
       <c r="K176" s="2" t="inlineStr"/>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N176" s="2" t="inlineStr">
@@ -9213,12 +9189,12 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F177" s="2" t="inlineStr"/>
@@ -9229,17 +9205,17 @@
       <c r="K177" s="2" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9253,23 +9229,31 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr"/>
-      <c r="G178" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H178" s="2" t="inlineStr"/>
       <c r="I178" s="2" t="inlineStr"/>
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
@@ -9279,7 +9263,7 @@
       </c>
       <c r="N178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9287,12 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -9317,7 +9301,7 @@
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
@@ -9351,12 +9335,12 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr"/>
@@ -9365,7 +9349,7 @@
       <c r="K180" s="2" t="inlineStr"/>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
@@ -9374,54 +9358,6 @@
         </is>
       </c>
       <c r="N180" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n"/>
-      <c r="B181" s="2" t="n"/>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr"/>
-      <c r="J181" s="2" t="inlineStr"/>
-      <c r="K181" s="2" t="inlineStr"/>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M181" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N181" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -9429,50 +9365,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="B133:B142"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A95:A112"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A58"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B72:B81"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B95:B112"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="A113:A127"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="A167:A175"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A133:A142"/>
-    <mergeCell ref="B149:B164"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A43:A57"/>
-    <mergeCell ref="B113:B127"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="B167:B175"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B42:B56"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B166:B174"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B112:B126"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B175:B180"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B94:B111"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="A94:A111"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="A112:A126"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A166:A174"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B148:B163"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A57"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A142:A147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,8 +1676,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,63 +1693,47 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2031,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,12 +2079,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2109,12 +2093,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2124,64 +2108,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2189,23 +2165,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2239,21 +2223,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2297,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2324,72 +2316,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2407,21 +2391,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2633,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2655,77 +2647,61 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -2733,28 +2709,36 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>exemption-type</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2783,12 +2767,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>exemption-type</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -2797,12 +2781,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2821,22 +2805,22 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -2845,12 +2829,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2879,12 +2863,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -2893,12 +2877,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2927,12 +2911,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -2941,17 +2925,17 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2975,12 +2959,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -2989,12 +2973,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3023,31 +3007,39 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>loss-date</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3081,24 +3073,24 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>loss-date</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3137,29 +3129,29 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>supporting-evidence</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3183,39 +3175,31 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>supporting-evidence</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3239,12 +3223,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3253,12 +3237,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3287,12 +3271,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3301,17 +3285,17 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3335,21 +3319,29 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3359,7 +3351,7 @@
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3393,19 +3385,19 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3420,48 +3412,40 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3478,27 +3462,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3509,12 +3493,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3524,16 +3508,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3541,12 +3517,12 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
@@ -3557,17 +3533,17 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3557,12 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
@@ -3597,7 +3573,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3612,21 +3588,29 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
@@ -3637,7 +3621,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3647,21 +3631,13 @@
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3669,12 +3645,12 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -3685,12 +3661,12 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3709,12 +3685,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3725,12 +3701,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3740,37 +3716,53 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3780,16 +3772,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -3807,12 +3791,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3821,7 +3805,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3855,12 +3839,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3869,7 +3853,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3893,22 +3877,22 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
@@ -3917,7 +3901,7 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3951,12 +3935,12 @@
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr"/>
@@ -3965,7 +3949,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3999,12 +3983,12 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr"/>
@@ -4013,7 +3997,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -4037,95 +4021,95 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -4143,12 +4127,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4157,17 +4141,17 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4191,12 +4175,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4205,7 +4189,7 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4215,7 +4199,7 @@
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4229,36 +4213,28 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
       <c r="H73" s="2" t="inlineStr"/>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4277,12 +4253,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4293,17 +4269,17 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4293,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4333,12 +4309,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4357,12 +4333,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4373,17 +4349,17 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4373,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4413,7 +4389,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4437,12 +4413,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4453,7 +4429,7 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4477,12 +4453,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4493,36 +4469,44 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4533,31 +4517,23 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4565,12 +4541,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4581,17 +4557,17 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4605,12 +4581,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4621,12 +4597,12 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4645,12 +4621,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4661,17 +4637,17 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4661,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4701,7 +4677,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4725,12 +4701,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4741,12 +4717,12 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4756,32 +4732,48 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr"/>
-      <c r="G86" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4796,16 +4788,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -4823,12 +4807,12 @@
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr"/>
@@ -4837,17 +4821,17 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4871,31 +4855,39 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4929,29 +4921,29 @@
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J89" s="2" t="inlineStr"/>
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4985,29 +4977,37 @@
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J90" s="2" t="inlineStr"/>
-      <c r="K90" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5051,17 +5051,17 @@
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K91" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
@@ -5095,109 +5095,85 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K92" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H92" s="2" t="inlineStr"/>
+      <c r="I92" s="2" t="inlineStr"/>
+      <c r="J92" s="2" t="inlineStr"/>
+      <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>non-residential-change-outline</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>hours-not-known</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A94" s="2" t="n"/>
+      <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Details of changes to non-residential floorspace in the proposed development.</t>
@@ -5205,23 +5181,31 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>non-residential-change-outline</t>
+          <t>floorspace-details-outline</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5255,12 +5239,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5269,17 +5253,17 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5287,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5317,12 +5301,12 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5351,12 +5335,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>existing-gross-floorspace</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5365,17 +5349,17 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5399,12 +5383,12 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>existing-gross-floorspace</t>
+          <t>is-floorspace-lost-known</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Is floorspace lost known</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -5413,17 +5397,17 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Whether the amount of floorspace to be lost is known</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5447,12 +5431,12 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>is-floorspace-lost-known</t>
+          <t>floorspace-lost</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Is floorspace lost known</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr"/>
@@ -5461,12 +5445,12 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Whether the amount of floorspace to be lost is known</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
@@ -5495,12 +5479,12 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>floorspace-lost</t>
+          <t>is-total-gross-proposed-known</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Is total gross proposed known</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -5509,12 +5493,12 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Whether the total gross proposed floorspace is known</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5543,12 +5527,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>is-total-gross-proposed-known</t>
+          <t>total-gross-proposed</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Is total gross proposed known</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5557,12 +5541,12 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Whether the total gross proposed floorspace is known</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
@@ -5591,12 +5575,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>total-gross-proposed</t>
+          <t>net-additional-floorspace</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5605,7 +5589,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5615,7 +5599,7 @@
       </c>
       <c r="N102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5629,22 +5613,22 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details-outline</t>
+          <t>room-details-outline</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>net-additional-floorspace</t>
+          <t>use-class-accommodation</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5653,12 +5637,12 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
@@ -5687,12 +5671,12 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>use-class-accommodation</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5701,17 +5685,17 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5735,12 +5719,12 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5749,12 +5733,12 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5783,12 +5767,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>is-existing-rooms-lost-known</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Is existing rooms lost known</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5797,7 +5781,7 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Whether the total existing rooms that will be lost is known</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
@@ -5831,12 +5815,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>is-existing-rooms-lost-known</t>
+          <t>existing-rooms-lost</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Is existing rooms lost known</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5845,12 +5829,12 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Whether the total existing rooms that will be lost is known</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
@@ -5879,12 +5863,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>existing-rooms-lost</t>
+          <t>is-total-rooms-proposed-known</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Is total rooms proposed known</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5893,12 +5877,12 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Whether the total rooms proposed is known</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5927,12 +5911,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>is-total-rooms-proposed-known</t>
+          <t>total-rooms-proposed</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Is total rooms proposed known</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5941,12 +5925,12 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Whether the total rooms proposed is known</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
@@ -5975,12 +5959,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>total-rooms-proposed</t>
+          <t>net-additional-rooms</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5989,7 +5973,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5999,50 +5983,50 @@
       </c>
       <c r="N110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>room-details-outline</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>net-additional-rooms</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr"/>
+      <c r="G111" s="2" t="inlineStr"/>
       <c r="H111" s="2" t="inlineStr"/>
       <c r="I111" s="2" t="inlineStr"/>
       <c r="J111" s="2" t="inlineStr"/>
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N111" s="2" t="inlineStr">
@@ -6052,16 +6036,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A112" s="2" t="n"/>
+      <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -6069,12 +6045,12 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr"/>
@@ -6085,7 +6061,7 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -6109,33 +6085,49 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J113" s="2" t="inlineStr"/>
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6169,19 +6161,19 @@
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
@@ -6191,7 +6183,7 @@
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6225,19 +6217,19 @@
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6281,19 +6273,19 @@
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6337,19 +6329,19 @@
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6359,7 +6351,7 @@
       </c>
       <c r="N117" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6383,34 +6375,26 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr"/>
+      <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
@@ -6429,36 +6413,28 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
@@ -6477,23 +6453,31 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H120" s="2" t="inlineStr"/>
       <c r="I120" s="2" t="inlineStr"/>
       <c r="J120" s="2" t="inlineStr"/>
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6503,7 +6487,7 @@
       </c>
       <c r="N120" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6527,12 +6511,12 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr"/>
@@ -6541,12 +6525,12 @@
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N121" s="2" t="inlineStr">
@@ -6565,41 +6549,33 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
       <c r="H122" s="2" t="inlineStr"/>
       <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6613,12 +6589,12 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
@@ -6629,12 +6605,12 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
@@ -6653,12 +6629,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6669,7 +6645,7 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
@@ -6693,12 +6669,12 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
@@ -6709,12 +6685,12 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
@@ -6724,21 +6700,29 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n"/>
-      <c r="B126" s="2" t="n"/>
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
@@ -6749,31 +6733,23 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N126" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A127" s="2" t="n"/>
+      <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -6781,12 +6757,12 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr"/>
@@ -6797,17 +6773,17 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N127" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6797,12 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr"/>
@@ -6837,7 +6813,7 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
@@ -6861,12 +6837,12 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
@@ -6877,7 +6853,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6901,12 +6877,12 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr"/>
@@ -6917,7 +6893,7 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6932,21 +6908,29 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n"/>
-      <c r="B131" s="2" t="n"/>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
@@ -6957,7 +6941,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6967,21 +6951,13 @@
       </c>
       <c r="N131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -6989,12 +6965,12 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr"/>
@@ -7005,12 +6981,12 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N132" s="2" t="inlineStr">
@@ -7029,28 +7005,36 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H133" s="2" t="inlineStr"/>
       <c r="I133" s="2" t="inlineStr"/>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
@@ -7079,12 +7063,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -7093,17 +7077,17 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7111,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -7141,12 +7125,12 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
@@ -7175,12 +7159,12 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7189,7 +7173,7 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
@@ -7213,22 +7197,22 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7237,7 +7221,7 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7271,12 +7255,12 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7285,7 +7269,7 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7319,12 +7303,12 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7333,7 +7317,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7367,12 +7351,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7381,7 +7365,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7396,64 +7380,56 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr"/>
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -7461,12 +7437,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>reserved-matters</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7477,12 +7453,12 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
@@ -7501,12 +7477,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>reserved-matters</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7517,12 +7493,12 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
@@ -7541,12 +7517,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7557,17 +7533,17 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7557,12 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7597,17 +7573,17 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7597,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7637,36 +7613,44 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n"/>
-      <c r="B147" s="2" t="n"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7677,31 +7661,23 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -7709,28 +7685,36 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H148" s="2" t="inlineStr"/>
       <c r="I148" s="2" t="inlineStr"/>
       <c r="J148" s="2" t="inlineStr"/>
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
@@ -7759,12 +7743,12 @@
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr"/>
@@ -7773,7 +7757,7 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
@@ -7807,26 +7791,34 @@
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
@@ -7865,19 +7857,27 @@
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J151" s="2" t="inlineStr"/>
-      <c r="K151" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
@@ -7931,27 +7931,27 @@
       </c>
       <c r="J152" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K152" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7995,17 +7995,17 @@
       </c>
       <c r="J153" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K153" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8049,27 +8049,19 @@
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="inlineStr"/>
+      <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -8079,7 +8071,7 @@
       </c>
       <c r="N154" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8103,39 +8095,39 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J155" s="2" t="inlineStr"/>
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8169,19 +8161,27 @@
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J156" s="2" t="inlineStr"/>
-      <c r="K156" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
@@ -8235,27 +8235,27 @@
       </c>
       <c r="J157" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K157" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8299,17 +8299,17 @@
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K158" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="N158" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8353,27 +8353,19 @@
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J159" s="2" t="inlineStr"/>
+      <c r="K159" s="2" t="inlineStr"/>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8383,7 +8375,7 @@
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8397,39 +8389,23 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
+      <c r="H160" s="2" t="inlineStr"/>
+      <c r="I160" s="2" t="inlineStr"/>
       <c r="J160" s="2" t="inlineStr"/>
       <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
@@ -8439,7 +8415,7 @@
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8453,12 +8429,12 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr"/>
@@ -8469,7 +8445,7 @@
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8493,12 +8469,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8509,7 +8485,7 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
@@ -8524,21 +8500,29 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n"/>
-      <c r="B163" s="2" t="n"/>
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8549,7 +8533,7 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
@@ -8564,16 +8548,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -8581,12 +8557,12 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8597,52 +8573,68 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n"/>
-      <c r="B165" s="2" t="n"/>
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G165" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H165" s="2" t="inlineStr"/>
       <c r="I165" s="2" t="inlineStr"/>
       <c r="J165" s="2" t="inlineStr"/>
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
@@ -8652,16 +8644,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -8679,12 +8663,12 @@
       </c>
       <c r="F166" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr"/>
@@ -8693,12 +8677,12 @@
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
@@ -8727,12 +8711,12 @@
       </c>
       <c r="F167" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr"/>
@@ -8741,7 +8725,7 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
@@ -8775,12 +8759,12 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr"/>
@@ -8789,12 +8773,12 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
@@ -8823,12 +8807,12 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr"/>
@@ -8837,7 +8821,7 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
@@ -8871,12 +8855,12 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr"/>
@@ -8885,7 +8869,7 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
@@ -8919,12 +8903,12 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr"/>
@@ -8933,7 +8917,7 @@
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
@@ -8967,12 +8951,12 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -8981,12 +8965,12 @@
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
@@ -9015,12 +8999,12 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -9029,7 +9013,7 @@
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
@@ -9044,64 +9028,56 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n"/>
-      <c r="B174" s="2" t="n"/>
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
       <c r="H174" s="2" t="inlineStr"/>
       <c r="I174" s="2" t="inlineStr"/>
       <c r="J174" s="2" t="inlineStr"/>
       <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N174" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A175" s="2" t="n"/>
+      <c r="B175" s="2" t="n"/>
       <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -9109,12 +9085,12 @@
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F175" s="2" t="inlineStr"/>
@@ -9125,12 +9101,12 @@
       <c r="K175" s="2" t="inlineStr"/>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
@@ -9149,12 +9125,12 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr"/>
@@ -9165,17 +9141,17 @@
       <c r="K176" s="2" t="inlineStr"/>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N176" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9189,23 +9165,31 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr"/>
-      <c r="G177" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H177" s="2" t="inlineStr"/>
       <c r="I177" s="2" t="inlineStr"/>
       <c r="J177" s="2" t="inlineStr"/>
       <c r="K177" s="2" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
@@ -9215,7 +9199,7 @@
       </c>
       <c r="N177" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9239,12 +9223,12 @@
       </c>
       <c r="F178" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr"/>
@@ -9253,7 +9237,7 @@
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
@@ -9287,12 +9271,12 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -9301,7 +9285,7 @@
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
@@ -9310,54 +9294,6 @@
         </is>
       </c>
       <c r="N179" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n"/>
-      <c r="B180" s="2" t="n"/>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr"/>
-      <c r="I180" s="2" t="inlineStr"/>
-      <c r="J180" s="2" t="inlineStr"/>
-      <c r="K180" s="2" t="inlineStr"/>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M180" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N180" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -9365,50 +9301,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B42:B56"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B166:B174"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B112:B126"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B175:B180"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B94:B111"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="A175:A180"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="A94:A111"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="A112:A126"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A166:A174"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B148:B163"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B147:B162"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A147:A162"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="B111:B125"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A93:A110"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="A165:A173"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B93:B110"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B173"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="A86:A92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,16 +1676,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,47 +1685,63 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2031,21 +2031,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,12 +2087,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2093,12 +2101,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,56 +2116,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2165,31 +2181,23 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,29 +2231,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2289,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2316,64 +2316,72 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2391,29 +2399,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2625,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2647,61 +2647,77 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>bng</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-applies</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>How any natural habitats on the development site will be improved by the proposed works.</t>
@@ -2709,36 +2725,28 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>bng-condition-exemption-reasons</t>
+          <t>bng-condition-applies</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>exemption-type</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Exemption type</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2767,12 +2775,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>exemption-type</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Exemption type</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr"/>
@@ -2781,12 +2789,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2805,22 +2813,22 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>bng-details</t>
+          <t>bng-condition-exemption-reasons</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
+          <t>Biodiversity gain condition exemption reason[]</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>pre-development-date</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -2829,12 +2837,12 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -2863,12 +2871,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>pre-development-biodiversity-value</t>
+          <t>pre-development-date</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -2877,12 +2885,12 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -2911,12 +2919,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>earlier-date-reason</t>
+          <t>pre-development-biodiversity-value</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -2925,17 +2933,17 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2959,12 +2967,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-after-2020</t>
+          <t>earlier-date-reason</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -2973,12 +2981,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3007,39 +3015,31 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>habitat-loss-details</t>
+          <t>habitat-loss-after-2020</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>loss-date</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Loss date</t>
-        </is>
-      </c>
+          <t>Habitat loss after 2020</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3073,24 +3073,24 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>pre-loss-biodiversity-value</t>
+          <t>loss-date</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Loss date</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3129,29 +3129,29 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>supporting-evidence</t>
+          <t>pre-loss-biodiversity-value</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Supporting evidence</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3175,31 +3175,39 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>metric-publication-date</t>
+          <t>habitat-loss-details</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>supporting-evidence</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>Supporting evidence</t>
+        </is>
+      </c>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3223,12 +3231,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats</t>
+          <t>metric-publication-date</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Metric publication date</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3237,12 +3245,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3271,12 +3279,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>irreplaceable-habitats-details</t>
+          <t>irreplaceable-habitats</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3285,17 +3293,17 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3319,29 +3327,21 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>irreplaceable-habitats-details</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Irreplaceable habitats details</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3385,19 +3385,19 @@
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -9301,50 +9301,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B35:B40"/>
     <mergeCell ref="B141:B146"/>
-    <mergeCell ref="B31:B34"/>
     <mergeCell ref="B86:B92"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="B147:B162"/>
     <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
     <mergeCell ref="A147:A162"/>
-    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A36:A41"/>
     <mergeCell ref="B111:B125"/>
-    <mergeCell ref="B2:B18"/>
     <mergeCell ref="B126:B130"/>
     <mergeCell ref="A174:A179"/>
     <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A80:A85"/>
     <mergeCell ref="B131:B140"/>
     <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B23:B30"/>
     <mergeCell ref="A93:A110"/>
+    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B70:B79"/>
-    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B56"/>
     <mergeCell ref="A165:A173"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="B174:B179"/>
-    <mergeCell ref="A19:A22"/>
     <mergeCell ref="B80:B85"/>
     <mergeCell ref="A141:A146"/>
     <mergeCell ref="B93:B110"/>
-    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B36:B41"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A111:A125"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B42:B55"/>
     <mergeCell ref="B165:B173"/>
     <mergeCell ref="A131:A140"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B41:B55"/>
-    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7159,12 +7159,12 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7173,12 +7173,12 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
@@ -7197,22 +7197,22 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7245,22 +7245,22 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7269,12 +7269,12 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N138" s="2" t="inlineStr">
@@ -7303,12 +7303,12 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7317,7 +7317,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7351,12 +7351,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>hazardous</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7365,7 +7365,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7380,50 +7380,50 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A141" s="2" t="n"/>
+      <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr"/>
-      <c r="G141" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>commercial-industrial</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="inlineStr">
+        <is>
+          <t>Commercial industrial</t>
+        </is>
+      </c>
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr"/>
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7432,44 +7432,60 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>reserved-matters</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>hazardous</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -7477,12 +7493,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7493,12 +7509,12 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
@@ -7517,12 +7533,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>reserved-matters</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7533,17 +7549,17 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7557,12 +7573,12 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7573,7 +7589,7 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7597,12 +7613,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7613,7 +7629,7 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7628,29 +7644,21 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A147" s="2" t="n"/>
+      <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7661,7 +7669,7 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
@@ -7680,52 +7688,52 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>tenure-type</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+          <t>Proposal completion date</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr"/>
       <c r="H148" s="2" t="inlineStr"/>
       <c r="I148" s="2" t="inlineStr"/>
       <c r="J148" s="2" t="inlineStr"/>
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -7733,36 +7741,28 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr">
-        <is>
-          <t>housing-type</t>
-        </is>
-      </c>
-      <c r="G149" s="2" t="inlineStr">
-        <is>
-          <t>Housing type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
@@ -7791,34 +7791,26 @@
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>tenure-type</t>
         </is>
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>units-unknown</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Tenure type</t>
+        </is>
+      </c>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
@@ -7847,42 +7839,26 @@
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr"/>
+      <c r="J151" s="2" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
@@ -7921,37 +7897,29 @@
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr"/>
+      <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7995,22 +7963,22 @@
       </c>
       <c r="J153" s="2" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>no-bedrooms-unknown</t>
         </is>
       </c>
       <c r="K153" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
@@ -8049,19 +8017,27 @@
       </c>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="J154" s="2" t="inlineStr"/>
-      <c r="K154" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -8095,34 +8071,42 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>proposed-unit-breakdown</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J155" s="2" t="inlineStr"/>
-      <c r="K155" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
@@ -8151,47 +8135,39 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>proposed-unit-breakdown</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J156" s="2" t="inlineStr"/>
+      <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8225,37 +8201,29 @@
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="inlineStr"/>
+      <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8299,22 +8267,22 @@
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>no-bedrooms-unknown</t>
         </is>
       </c>
       <c r="K158" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
@@ -8353,19 +8321,27 @@
       </c>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="J159" s="2" t="inlineStr"/>
-      <c r="K159" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8389,23 +8365,47 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr"/>
-      <c r="G160" s="2" t="inlineStr"/>
-      <c r="H160" s="2" t="inlineStr"/>
-      <c r="I160" s="2" t="inlineStr"/>
-      <c r="J160" s="2" t="inlineStr"/>
-      <c r="K160" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>proposed-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
@@ -8429,23 +8429,39 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr"/>
-      <c r="G161" s="2" t="inlineStr"/>
-      <c r="H161" s="2" t="inlineStr"/>
-      <c r="I161" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>proposed-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>total-units</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8455,7 +8471,7 @@
       </c>
       <c r="N161" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8469,12 +8485,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8485,7 +8501,7 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
@@ -8500,29 +8516,21 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A163" s="2" t="n"/>
+      <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8533,7 +8541,7 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
@@ -8552,17 +8560,17 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8573,73 +8581,65 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N164" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>Site details</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>site-details</t>
+          <t>site-area</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G165" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr"/>
+      <c r="G165" s="2" t="inlineStr"/>
       <c r="H165" s="2" t="inlineStr"/>
       <c r="I165" s="2" t="inlineStr"/>
       <c r="J165" s="2" t="inlineStr"/>
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8648,41 +8648,33 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G166" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr"/>
+      <c r="G166" s="2" t="inlineStr"/>
       <c r="H166" s="2" t="inlineStr"/>
       <c r="I166" s="2" t="inlineStr"/>
       <c r="J166" s="2" t="inlineStr"/>
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
@@ -8692,8 +8684,16 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n"/>
-      <c r="B167" s="2" t="n"/>
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -8711,12 +8711,12 @@
       </c>
       <c r="F167" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr"/>
@@ -8725,12 +8725,12 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
@@ -8759,12 +8759,12 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr"/>
@@ -8773,12 +8773,12 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N168" s="2" t="inlineStr">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr"/>
@@ -8821,12 +8821,12 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
@@ -8855,12 +8855,12 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr"/>
@@ -8869,7 +8869,7 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
@@ -8903,12 +8903,12 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr"/>
@@ -8917,7 +8917,7 @@
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -8965,12 +8965,12 @@
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N172" s="2" t="inlineStr">
@@ -8999,12 +8999,12 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -9013,12 +9013,12 @@
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N173" s="2" t="inlineStr">
@@ -9028,50 +9028,50 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A174" s="2" t="n"/>
+      <c r="B174" s="2" t="n"/>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
       <c r="H174" s="2" t="inlineStr"/>
       <c r="I174" s="2" t="inlineStr"/>
       <c r="J174" s="2" t="inlineStr"/>
       <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N174" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9080,44 +9080,60 @@
       <c r="B175" s="2" t="n"/>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr"/>
-      <c r="G175" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>uprns</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="H175" s="2" t="inlineStr"/>
       <c r="I175" s="2" t="inlineStr"/>
       <c r="J175" s="2" t="inlineStr"/>
       <c r="K175" s="2" t="inlineStr"/>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n"/>
-      <c r="B176" s="2" t="n"/>
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -9125,12 +9141,12 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr"/>
@@ -9141,17 +9157,17 @@
       <c r="K176" s="2" t="inlineStr"/>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N176" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9165,36 +9181,28 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr"/>
       <c r="I177" s="2" t="inlineStr"/>
       <c r="J177" s="2" t="inlineStr"/>
       <c r="K177" s="2" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N177" s="2" t="inlineStr">
@@ -9213,31 +9221,23 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr"/>
       <c r="H178" s="2" t="inlineStr"/>
       <c r="I178" s="2" t="inlineStr"/>
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="N178" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9271,12 +9271,12 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -9285,15 +9285,111 @@
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr">
         <is>
+          <t>The complete name of a person</t>
+        </is>
+      </c>
+      <c r="M179" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N179" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n"/>
+      <c r="B180" s="2" t="n"/>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>other-contact</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr"/>
+      <c r="J180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr"/>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>A phone number</t>
+        </is>
+      </c>
+      <c r="M180" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N180" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n"/>
+      <c r="B181" s="2" t="n"/>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>other-contact</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr"/>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="M179" s="2" t="inlineStr">
+      <c r="M181" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="N179" s="2" t="inlineStr">
+      <c r="N181" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -9301,49 +9397,49 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B141:B146"/>
     <mergeCell ref="B86:B92"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B147:B162"/>
+    <mergeCell ref="A131:A142"/>
+    <mergeCell ref="A176:A181"/>
     <mergeCell ref="A126:A130"/>
     <mergeCell ref="A86:A92"/>
     <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B165:B166"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A147:A162"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B111:B125"/>
+    <mergeCell ref="B131:B142"/>
+    <mergeCell ref="B176:B181"/>
     <mergeCell ref="B126:B130"/>
-    <mergeCell ref="A174:A179"/>
     <mergeCell ref="A63:A69"/>
     <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B131:B140"/>
     <mergeCell ref="B63:B69"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="A93:A110"/>
-    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B70:B79"/>
     <mergeCell ref="B56"/>
-    <mergeCell ref="A165:A173"/>
+    <mergeCell ref="A167:A175"/>
     <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A165:A166"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="B143:B148"/>
     <mergeCell ref="B80:B85"/>
-    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B149:B164"/>
     <mergeCell ref="B93:B110"/>
-    <mergeCell ref="B163:B164"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A111:A125"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B42:B55"/>
-    <mergeCell ref="B165:B173"/>
-    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="B167:B175"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A143:A148"/>
     <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4012,56 +4012,64 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -4079,12 +4087,12 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr"/>
@@ -4093,17 +4101,17 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4127,12 +4135,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4141,7 +4149,7 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4151,7 +4159,7 @@
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4165,36 +4173,28 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4229,17 +4229,17 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4253,12 +4253,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4269,12 +4269,12 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4293,12 +4293,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4309,17 +4309,17 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4333,12 +4333,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4349,7 +4349,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4389,7 +4389,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4429,36 +4429,44 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4469,31 +4477,23 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4517,17 +4517,17 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4541,12 +4541,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4557,12 +4557,12 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4581,12 +4581,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4597,17 +4597,17 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4637,7 +4637,7 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4677,12 +4677,12 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4692,32 +4692,48 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>hours-of-operation</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr"/>
-      <c r="G85" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4732,16 +4748,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
           <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
@@ -4759,12 +4767,12 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -4773,17 +4781,17 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4807,31 +4815,39 @@
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>operational-times</t>
         </is>
       </c>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>day-type</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4865,29 +4881,29 @@
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>day-type</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4921,29 +4937,37 @@
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>time-ranges</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="J89" s="2" t="inlineStr"/>
-      <c r="K89" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>open-time</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4987,17 +5011,17 @@
       </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>open-time</t>
+          <t>close-time</t>
         </is>
       </c>
       <c r="K90" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
@@ -5031,109 +5055,85 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>operational-times</t>
+          <t>hours-not-known</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>time-ranges</t>
-        </is>
-      </c>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>close-time</t>
-        </is>
-      </c>
-      <c r="K91" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr"/>
+      <c r="J91" s="2" t="inlineStr"/>
+      <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>hours-of-operation</t>
+          <t>non-residential-change-outline</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>hours-not-known</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr"/>
       <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
           <t>Details of changes to non-residential floorspace in the proposed development.</t>
@@ -5141,23 +5141,31 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>non-residential-change-outline</t>
+          <t>floorspace-details-outline</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H93" s="2" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5191,12 +5199,12 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>specified-use</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -5205,17 +5213,17 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5239,12 +5247,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>specified-use</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5253,12 +5261,12 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5287,12 +5295,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>existing-gross-floorspace</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5301,17 +5309,17 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5335,12 +5343,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>existing-gross-floorspace</t>
+          <t>is-floorspace-lost-known</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Is floorspace lost known</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5349,17 +5357,17 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Whether the amount of floorspace to be lost is known</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5391,12 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>is-floorspace-lost-known</t>
+          <t>floorspace-lost</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Is floorspace lost known</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -5397,12 +5405,12 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Whether the amount of floorspace to be lost is known</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
@@ -5431,12 +5439,12 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>floorspace-lost</t>
+          <t>is-total-gross-proposed-known</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Is total gross proposed known</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr"/>
@@ -5445,12 +5453,12 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Whether the total gross proposed floorspace is known</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
@@ -5479,12 +5487,12 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>is-total-gross-proposed-known</t>
+          <t>total-gross-proposed</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Is total gross proposed known</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -5493,12 +5501,12 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Whether the total gross proposed floorspace is known</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5527,12 +5535,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>total-gross-proposed</t>
+          <t>net-additional-floorspace</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5541,7 +5549,7 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5551,7 +5559,7 @@
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5565,22 +5573,22 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>floorspace-details-outline</t>
+          <t>room-details-outline</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>net-additional-floorspace</t>
+          <t>use-class-accommodation</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5589,12 +5597,12 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5623,12 +5631,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>use-class-accommodation</t>
+          <t>use-other</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5637,17 +5645,17 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5679,12 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>use-other</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5685,12 +5693,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Used to explicitly state the use class does not apply to the proposal</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5719,12 +5727,12 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>is-existing-rooms-lost-known</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Is existing rooms lost known</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5733,7 +5741,7 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Whether the total existing rooms that will be lost is known</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
@@ -5767,12 +5775,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>is-existing-rooms-lost-known</t>
+          <t>existing-rooms-lost</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Is existing rooms lost known</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5781,12 +5789,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Whether the total existing rooms that will be lost is known</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5815,12 +5823,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>existing-rooms-lost</t>
+          <t>is-total-rooms-proposed-known</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Is total rooms proposed known</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5829,12 +5837,12 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Whether the total rooms proposed is known</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
@@ -5863,12 +5871,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>is-total-rooms-proposed-known</t>
+          <t>total-rooms-proposed</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Is total rooms proposed known</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5877,12 +5885,12 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Whether the total rooms proposed is known</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5911,12 +5919,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>total-rooms-proposed</t>
+          <t>net-additional-rooms</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5925,7 +5933,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5935,50 +5943,50 @@
       </c>
       <c r="N109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>room-details-outline</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>net-additional-rooms</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
       <c r="H110" s="2" t="inlineStr"/>
       <c r="I110" s="2" t="inlineStr"/>
       <c r="J110" s="2" t="inlineStr"/>
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
@@ -5988,16 +5996,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A111" s="2" t="n"/>
+      <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -6005,12 +6005,12 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -6045,33 +6045,49 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="2" t="inlineStr"/>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J112" s="2" t="inlineStr"/>
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6105,19 +6121,19 @@
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J113" s="2" t="inlineStr"/>
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -6127,7 +6143,7 @@
       </c>
       <c r="N113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6161,19 +6177,19 @@
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
@@ -6217,19 +6233,19 @@
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6273,19 +6289,19 @@
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6295,7 +6311,7 @@
       </c>
       <c r="N116" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6319,34 +6335,26 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
@@ -6365,36 +6373,28 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr"/>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
@@ -6413,23 +6413,31 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr"/>
       <c r="J119" s="2" t="inlineStr"/>
       <c r="K119" s="2" t="inlineStr"/>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6439,7 +6447,7 @@
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6463,12 +6471,12 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr"/>
@@ -6477,12 +6485,12 @@
       <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N120" s="2" t="inlineStr">
@@ -6501,41 +6509,33 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
       <c r="H121" s="2" t="inlineStr"/>
       <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr"/>
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6549,12 +6549,12 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr"/>
@@ -6565,12 +6565,12 @@
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6589,12 +6589,12 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
@@ -6605,7 +6605,7 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
@@ -6629,12 +6629,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6645,12 +6645,12 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
@@ -6660,21 +6660,29 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n"/>
-      <c r="B125" s="2" t="n"/>
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
@@ -6685,31 +6693,23 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A126" s="2" t="n"/>
+      <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -6717,12 +6717,12 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
@@ -6733,17 +6733,17 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N126" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6757,12 +6757,12 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F127" s="2" t="inlineStr"/>
@@ -6773,7 +6773,7 @@
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6797,12 +6797,12 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr"/>
@@ -6813,7 +6813,7 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6868,21 +6868,29 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n"/>
-      <c r="B130" s="2" t="n"/>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr"/>
@@ -6893,7 +6901,7 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6903,21 +6911,13 @@
       </c>
       <c r="N130" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A131" s="2" t="n"/>
+      <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -6925,12 +6925,12 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
@@ -6941,12 +6941,12 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N131" s="2" t="inlineStr">
@@ -6965,28 +6965,36 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr"/>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N132" s="2" t="inlineStr">
@@ -7015,12 +7023,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -7029,17 +7037,17 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7063,12 +7071,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -7077,12 +7085,12 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -7111,12 +7119,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -7125,12 +7133,12 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
@@ -7159,12 +7167,12 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>unit-type</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7173,12 +7181,12 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
@@ -7207,12 +7215,12 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7221,12 +7229,12 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N137" s="2" t="inlineStr">
@@ -7245,22 +7253,22 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>unit-type</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7269,12 +7277,12 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N138" s="2" t="inlineStr">
@@ -7303,12 +7311,12 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7317,7 +7325,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7351,12 +7359,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7365,7 +7373,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7399,12 +7407,12 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr"/>
@@ -7413,7 +7421,7 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
@@ -7428,64 +7436,56 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -7493,12 +7493,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>reserved-matters</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7509,12 +7509,12 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
@@ -7533,12 +7533,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>reserved-matters</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7549,12 +7549,12 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
@@ -7573,12 +7573,12 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr"/>
@@ -7589,17 +7589,17 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr"/>
@@ -7629,17 +7629,17 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7653,12 +7653,12 @@
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr"/>
@@ -7669,36 +7669,44 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7709,31 +7717,23 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -7741,28 +7741,36 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
@@ -7791,12 +7799,12 @@
       </c>
       <c r="F150" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr"/>
@@ -7805,7 +7813,7 @@
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
@@ -7839,26 +7847,34 @@
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J151" s="2" t="inlineStr"/>
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
@@ -7897,19 +7913,27 @@
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
@@ -7963,27 +7987,27 @@
       </c>
       <c r="J153" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K153" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8027,17 +8051,17 @@
       </c>
       <c r="J154" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K154" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -8047,7 +8071,7 @@
       </c>
       <c r="N154" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8081,27 +8105,19 @@
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="inlineStr"/>
+      <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
@@ -8111,7 +8127,7 @@
       </c>
       <c r="N155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8135,39 +8151,39 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8201,19 +8217,27 @@
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J157" s="2" t="inlineStr"/>
-      <c r="K157" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8267,27 +8291,27 @@
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K158" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N158" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8331,17 +8355,17 @@
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K159" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M159" s="2" t="inlineStr">
@@ -8351,7 +8375,7 @@
       </c>
       <c r="N159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8385,27 +8409,19 @@
       </c>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="inlineStr"/>
+      <c r="K160" s="2" t="inlineStr"/>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M160" s="2" t="inlineStr">
@@ -8415,7 +8431,7 @@
       </c>
       <c r="N160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -8429,39 +8445,23 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr"/>
+      <c r="H161" s="2" t="inlineStr"/>
+      <c r="I161" s="2" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr"/>
       <c r="K161" s="2" t="inlineStr"/>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M161" s="2" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="N161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -8485,12 +8485,12 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F162" s="2" t="inlineStr"/>
@@ -8501,7 +8501,7 @@
       <c r="K162" s="2" t="inlineStr"/>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M162" s="2" t="inlineStr">
@@ -8525,12 +8525,12 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F163" s="2" t="inlineStr"/>
@@ -8541,7 +8541,7 @@
       <c r="K163" s="2" t="inlineStr"/>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M163" s="2" t="inlineStr">
@@ -8556,21 +8556,29 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n"/>
-      <c r="B164" s="2" t="n"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F164" s="2" t="inlineStr"/>
@@ -8581,7 +8589,7 @@
       <c r="K164" s="2" t="inlineStr"/>
       <c r="L164" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M164" s="2" t="inlineStr">
@@ -8596,16 +8604,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -8613,12 +8613,12 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr"/>
@@ -8629,52 +8629,68 @@
       <c r="K165" s="2" t="inlineStr"/>
       <c r="L165" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M165" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr"/>
-      <c r="G166" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H166" s="2" t="inlineStr"/>
       <c r="I166" s="2" t="inlineStr"/>
       <c r="J166" s="2" t="inlineStr"/>
       <c r="K166" s="2" t="inlineStr"/>
       <c r="L166" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M166" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N166" s="2" t="inlineStr">
@@ -8684,16 +8700,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A167" s="2" t="n"/>
+      <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -8711,12 +8719,12 @@
       </c>
       <c r="F167" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr"/>
@@ -8725,12 +8733,12 @@
       <c r="K167" s="2" t="inlineStr"/>
       <c r="L167" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M167" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N167" s="2" t="inlineStr">
@@ -8759,12 +8767,12 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr"/>
@@ -8773,7 +8781,7 @@
       <c r="K168" s="2" t="inlineStr"/>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M168" s="2" t="inlineStr">
@@ -8807,12 +8815,12 @@
       </c>
       <c r="F169" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr"/>
@@ -8821,12 +8829,12 @@
       <c r="K169" s="2" t="inlineStr"/>
       <c r="L169" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M169" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N169" s="2" t="inlineStr">
@@ -8855,12 +8863,12 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr"/>
@@ -8869,7 +8877,7 @@
       <c r="K170" s="2" t="inlineStr"/>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M170" s="2" t="inlineStr">
@@ -8903,12 +8911,12 @@
       </c>
       <c r="F171" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr"/>
@@ -8917,7 +8925,7 @@
       <c r="K171" s="2" t="inlineStr"/>
       <c r="L171" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M171" s="2" t="inlineStr">
@@ -8951,12 +8959,12 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr"/>
@@ -8965,7 +8973,7 @@
       <c r="K172" s="2" t="inlineStr"/>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M172" s="2" t="inlineStr">
@@ -8999,12 +9007,12 @@
       </c>
       <c r="F173" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr"/>
@@ -9013,12 +9021,12 @@
       <c r="K173" s="2" t="inlineStr"/>
       <c r="L173" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M173" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N173" s="2" t="inlineStr">
@@ -9047,12 +9055,12 @@
       </c>
       <c r="F174" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr"/>
@@ -9061,7 +9069,7 @@
       <c r="K174" s="2" t="inlineStr"/>
       <c r="L174" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M174" s="2" t="inlineStr">
@@ -9076,64 +9084,56 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n"/>
-      <c r="B175" s="2" t="n"/>
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr"/>
       <c r="H175" s="2" t="inlineStr"/>
       <c r="I175" s="2" t="inlineStr"/>
       <c r="J175" s="2" t="inlineStr"/>
       <c r="K175" s="2" t="inlineStr"/>
       <c r="L175" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M175" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A176" s="2" t="n"/>
+      <c r="B176" s="2" t="n"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -9141,12 +9141,12 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr"/>
@@ -9157,12 +9157,12 @@
       <c r="K176" s="2" t="inlineStr"/>
       <c r="L176" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M176" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N176" s="2" t="inlineStr">
@@ -9181,12 +9181,12 @@
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E177" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F177" s="2" t="inlineStr"/>
@@ -9197,17 +9197,17 @@
       <c r="K177" s="2" t="inlineStr"/>
       <c r="L177" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M177" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -9221,23 +9221,31 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr"/>
-      <c r="G178" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H178" s="2" t="inlineStr"/>
       <c r="I178" s="2" t="inlineStr"/>
       <c r="J178" s="2" t="inlineStr"/>
       <c r="K178" s="2" t="inlineStr"/>
       <c r="L178" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M178" s="2" t="inlineStr">
@@ -9247,7 +9255,7 @@
       </c>
       <c r="N178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -9271,12 +9279,12 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr"/>
@@ -9285,7 +9293,7 @@
       <c r="K179" s="2" t="inlineStr"/>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M179" s="2" t="inlineStr">
@@ -9319,12 +9327,12 @@
       </c>
       <c r="F180" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr"/>
@@ -9333,7 +9341,7 @@
       <c r="K180" s="2" t="inlineStr"/>
       <c r="L180" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M180" s="2" t="inlineStr">
@@ -9342,54 +9350,6 @@
         </is>
       </c>
       <c r="N180" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n"/>
-      <c r="B181" s="2" t="n"/>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr"/>
-      <c r="J181" s="2" t="inlineStr"/>
-      <c r="K181" s="2" t="inlineStr"/>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M181" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N181" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -9397,50 +9357,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B86:B92"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A131:A142"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A110:A124"/>
     <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B165:B166"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B111:B125"/>
-    <mergeCell ref="B131:B142"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A130:A141"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B166:B174"/>
+    <mergeCell ref="B92:B109"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B130:B141"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B125:B129"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="A93:A110"/>
-    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="B175:B180"/>
     <mergeCell ref="B56"/>
-    <mergeCell ref="A167:A175"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A92:A109"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A165:A166"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B149:B164"/>
-    <mergeCell ref="B93:B110"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="B142:B147"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="B110:B124"/>
+    <mergeCell ref="A166:A174"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B42:B55"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="B167:B175"/>
+    <mergeCell ref="B148:B163"/>
     <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A143:A148"/>
     <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B79:B84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="M120" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N120" s="2" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="M145" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N145" s="2" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
+++ b/generated/spreadsheet/verbose/outline-planning-outline-verbose.xlsx
@@ -6629,12 +6629,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6645,12 +6645,12 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
